--- a/cronograma gantt.xlsx
+++ b/cronograma gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieder\Desktop\projeto-sus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ADE6E3F-EBD6-4E6E-A0F0-D0A1E8DECF0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C202A042-C188-4202-8206-C247072F8B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,6 +943,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -978,9 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1433,8 +1433,8 @@
   </sheetPr>
   <dimension ref="B1:BO36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1479,13 +1479,13 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1493,74 +1493,74 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="33"/>
       <c r="W2" s="18"/>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="33"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="34"/>
       <c r="AC2" s="19"/>
-      <c r="AD2" s="22" t="s">
+      <c r="AD2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="33"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="34"/>
       <c r="AL2" s="20"/>
-      <c r="AM2" s="22" t="s">
+      <c r="AM2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="40.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="30" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1587,12 +1587,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="7">
@@ -1788,14 +1788,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1803,27 +1803,27 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
         <v>7</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="34"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1831,7 +1831,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="7">
@@ -1851,7 +1851,7 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1859,7 +1859,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="7">
@@ -1879,7 +1879,7 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1887,7 +1887,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:67" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="7">
@@ -1907,7 +1907,7 @@
       </c>
     </row>
     <row r="14" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1915,7 +1915,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="7">
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="16" spans="2:67" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1943,7 +1943,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="7">

--- a/cronograma gantt.xlsx
+++ b/cronograma gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieder\Desktop\projeto-sus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieder\Desktop\Git\projeto-sus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C202A042-C188-4202-8206-C247072F8B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE65067-2FD4-414E-A4C6-EF7198251B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>PORCENTAGEM CONCLUÍDA</t>
-  </si>
-  <si>
-    <t>PERÍODOS</t>
   </si>
   <si>
     <t>Duração do Plano</t>
@@ -188,6 +185,9 @@
       </rPr>
       <t>Fábio Vasques, Gieder Loreto</t>
     </r>
+  </si>
+  <si>
+    <t>DIAS</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1434,7 @@
   <dimension ref="B1:BO36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1470,7 +1470,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -1504,14 +1504,14 @@
       <c r="Q2" s="33"/>
       <c r="R2" s="17"/>
       <c r="S2" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T2" s="32"/>
       <c r="U2" s="32"/>
       <c r="V2" s="33"/>
       <c r="W2" s="18"/>
       <c r="X2" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
@@ -1519,7 +1519,7 @@
       <c r="AB2" s="34"/>
       <c r="AC2" s="19"/>
       <c r="AD2" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" s="24"/>
       <c r="AF2" s="24"/>
@@ -1530,7 +1530,7 @@
       <c r="AK2" s="34"/>
       <c r="AL2" s="20"/>
       <c r="AM2" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN2" s="24"/>
       <c r="AO2" s="24"/>
@@ -1564,7 +1564,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="5" spans="2:67" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="7" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="9" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>14</v>
@@ -1841,13 +1841,13 @@
         <v>21</v>
       </c>
       <c r="E9" s="7">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8">
         <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1860,7 +1860,7 @@
     </row>
     <row r="11" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>21</v>
@@ -1869,13 +1869,13 @@
         <v>28</v>
       </c>
       <c r="E11" s="7">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7">
+        <v>7</v>
+      </c>
+      <c r="G11" s="8">
         <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1888,7 +1888,7 @@
     </row>
     <row r="13" spans="2:67" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
         <v>28</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="15" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
         <v>35</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="17" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>42</v>

--- a/cronograma gantt.xlsx
+++ b/cronograma gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieder\Desktop\Git\projeto-sus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE65067-2FD4-414E-A4C6-EF7198251B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3717B9C7-9455-47DC-B93A-E25A37E62A8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1434,7 +1434,7 @@
   <dimension ref="B1:BO36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1807,16 +1807,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7">
         <v>8</v>
       </c>
       <c r="F7" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1835,10 +1835,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E9" s="7">
         <v>15</v>
@@ -1863,10 +1863,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E11" s="7">
         <v>22</v>
@@ -1891,10 +1891,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
